--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vtn-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vtn-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Vtn</t>
+  </si>
+  <si>
+    <t>Itgav</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Vtn</t>
-  </si>
-  <si>
-    <t>Itgav</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.75206033333333</v>
+        <v>7.844453333333334</v>
       </c>
       <c r="H2">
-        <v>38.256181</v>
+        <v>23.53336</v>
       </c>
       <c r="I2">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659587</v>
       </c>
       <c r="J2">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659588</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N2">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q2">
-        <v>171.403873244563</v>
+        <v>69.19315637612445</v>
       </c>
       <c r="R2">
-        <v>1542.634859201067</v>
+        <v>622.73840738512</v>
       </c>
       <c r="S2">
-        <v>0.01411575599318079</v>
+        <v>0.009554017655279865</v>
       </c>
       <c r="T2">
-        <v>0.01411575599318079</v>
+        <v>0.009554017655279867</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.75206033333333</v>
+        <v>7.844453333333334</v>
       </c>
       <c r="H3">
-        <v>38.256181</v>
+        <v>23.53336</v>
       </c>
       <c r="I3">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659587</v>
       </c>
       <c r="J3">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659588</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q3">
-        <v>697.6847952492783</v>
+        <v>429.1820831025333</v>
       </c>
       <c r="R3">
-        <v>6279.163157243504</v>
+        <v>3862.6387479228</v>
       </c>
       <c r="S3">
-        <v>0.05745697657508159</v>
+        <v>0.05926038663422309</v>
       </c>
       <c r="T3">
-        <v>0.05745697657508159</v>
+        <v>0.0592603866342231</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.75206033333333</v>
+        <v>7.844453333333334</v>
       </c>
       <c r="H4">
-        <v>38.256181</v>
+        <v>23.53336</v>
       </c>
       <c r="I4">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659587</v>
       </c>
       <c r="J4">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659588</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N4">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q4">
-        <v>229.0976329981662</v>
+        <v>171.8575648873778</v>
       </c>
       <c r="R4">
-        <v>2061.878696983496</v>
+        <v>1546.7180839864</v>
       </c>
       <c r="S4">
-        <v>0.01886705489673044</v>
+        <v>0.02372966193653757</v>
       </c>
       <c r="T4">
-        <v>0.01886705489673044</v>
+        <v>0.02372966193653758</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.75206033333333</v>
+        <v>7.844453333333334</v>
       </c>
       <c r="H5">
-        <v>38.256181</v>
+        <v>23.53336</v>
       </c>
       <c r="I5">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659587</v>
       </c>
       <c r="J5">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659588</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N5">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q5">
-        <v>812.0143485723033</v>
+        <v>408.3576011054133</v>
       </c>
       <c r="R5">
-        <v>7308.12913715073</v>
+        <v>3675.21840994872</v>
       </c>
       <c r="S5">
-        <v>0.06687244687320314</v>
+        <v>0.05638499433991818</v>
       </c>
       <c r="T5">
-        <v>0.06687244687320315</v>
+        <v>0.05638499433991821</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.35396833333333</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H6">
-        <v>61.061905</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I6">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="J6">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N6">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q6">
-        <v>273.583163585815</v>
+        <v>179.5351765021678</v>
       </c>
       <c r="R6">
-        <v>2462.248472272335</v>
+        <v>1615.81658851951</v>
       </c>
       <c r="S6">
-        <v>0.02253060626879578</v>
+        <v>0.02478976731053372</v>
       </c>
       <c r="T6">
-        <v>0.02253060626879578</v>
+        <v>0.02478976731053372</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.35396833333333</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H7">
-        <v>61.061905</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I7">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="J7">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q7">
-        <v>1113.596850858058</v>
+        <v>1113.596850858059</v>
       </c>
       <c r="R7">
-        <v>10022.37165772252</v>
+        <v>10022.37165772253</v>
       </c>
       <c r="S7">
-        <v>0.09170890437848088</v>
+        <v>0.1537626628293707</v>
       </c>
       <c r="T7">
-        <v>0.09170890437848088</v>
+        <v>0.1537626628293708</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.35396833333333</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H8">
-        <v>61.061905</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I8">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="J8">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N8">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q8">
-        <v>365.6700051126088</v>
+        <v>445.9180627281612</v>
       </c>
       <c r="R8">
-        <v>3291.030046013479</v>
+        <v>4013.262564553451</v>
       </c>
       <c r="S8">
-        <v>0.0301143052866134</v>
+        <v>0.0615712487656235</v>
       </c>
       <c r="T8">
-        <v>0.0301143052866134</v>
+        <v>0.0615712487656235</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.35396833333333</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H9">
-        <v>61.061905</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I9">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="J9">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N9">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q9">
-        <v>1296.081880498183</v>
+        <v>1059.563659618799</v>
       </c>
       <c r="R9">
-        <v>11664.73692448365</v>
+        <v>9536.072936569186</v>
       </c>
       <c r="S9">
-        <v>0.1067372354310295</v>
+        <v>0.1463018951738988</v>
       </c>
       <c r="T9">
-        <v>0.1067372354310295</v>
+        <v>0.1463018951738988</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>47.951367</v>
+        <v>24.47399366666667</v>
       </c>
       <c r="H10">
-        <v>143.854101</v>
+        <v>73.421981</v>
       </c>
       <c r="I10">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="J10">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N10">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q10">
-        <v>644.5272227647231</v>
+        <v>215.8764669719002</v>
       </c>
       <c r="R10">
-        <v>5800.745004882508</v>
+        <v>1942.888202747102</v>
       </c>
       <c r="S10">
-        <v>0.05307924981676516</v>
+        <v>0.02980768163830506</v>
       </c>
       <c r="T10">
-        <v>0.05307924981676516</v>
+        <v>0.02980768163830506</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>47.951367</v>
+        <v>24.47399366666667</v>
       </c>
       <c r="H11">
-        <v>143.854101</v>
+        <v>73.421981</v>
       </c>
       <c r="I11">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="J11">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q11">
-        <v>2623.492893918345</v>
+        <v>1339.009761083612</v>
       </c>
       <c r="R11">
-        <v>23611.43604526511</v>
+        <v>12051.0878497525</v>
       </c>
       <c r="S11">
-        <v>0.2160545432223468</v>
+        <v>0.1848871126566959</v>
       </c>
       <c r="T11">
-        <v>0.2160545432223468</v>
+        <v>0.1848871126566959</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>47.951367</v>
+        <v>24.47399366666667</v>
       </c>
       <c r="H12">
-        <v>143.854101</v>
+        <v>73.421981</v>
       </c>
       <c r="I12">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="J12">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N12">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q12">
-        <v>861.4721379580239</v>
+        <v>536.180250668299</v>
       </c>
       <c r="R12">
-        <v>7753.249241622216</v>
+        <v>4825.622256014691</v>
       </c>
       <c r="S12">
-        <v>0.07094548252704069</v>
+        <v>0.07403442550663759</v>
       </c>
       <c r="T12">
-        <v>0.07094548252704069</v>
+        <v>0.07403442550663759</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>47.951367</v>
+        <v>24.47399366666667</v>
       </c>
       <c r="H13">
-        <v>143.854101</v>
+        <v>73.421981</v>
       </c>
       <c r="I13">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="J13">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N13">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q13">
-        <v>3053.404471109371</v>
+        <v>1274.03923747256</v>
       </c>
       <c r="R13">
-        <v>27480.64023998434</v>
+        <v>11466.35313725304</v>
       </c>
       <c r="S13">
-        <v>0.2514593844747571</v>
+        <v>0.1759161455529759</v>
       </c>
       <c r="T13">
-        <v>0.2514593844747572</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.004706</v>
-      </c>
-      <c r="H14">
-        <v>0.014118</v>
-      </c>
-      <c r="I14">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="J14">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>13.441269</v>
-      </c>
-      <c r="N14">
-        <v>40.323807</v>
-      </c>
-      <c r="O14">
-        <v>0.08973082133481231</v>
-      </c>
-      <c r="P14">
-        <v>0.08973082133481231</v>
-      </c>
-      <c r="Q14">
-        <v>0.063254611914</v>
-      </c>
-      <c r="R14">
-        <v>0.5692915072260001</v>
-      </c>
-      <c r="S14">
-        <v>5.209256070587035E-06</v>
-      </c>
-      <c r="T14">
-        <v>5.209256070587035E-06</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.004706</v>
-      </c>
-      <c r="H15">
-        <v>0.014118</v>
-      </c>
-      <c r="I15">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="J15">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>54.711535</v>
-      </c>
-      <c r="N15">
-        <v>164.134605</v>
-      </c>
-      <c r="O15">
-        <v>0.3652416280068742</v>
-      </c>
-      <c r="P15">
-        <v>0.3652416280068742</v>
-      </c>
-      <c r="Q15">
-        <v>0.25747248371</v>
-      </c>
-      <c r="R15">
-        <v>2.31725235339</v>
-      </c>
-      <c r="S15">
-        <v>2.120383096491001E-05</v>
-      </c>
-      <c r="T15">
-        <v>2.120383096491001E-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.004706</v>
-      </c>
-      <c r="H16">
-        <v>0.014118</v>
-      </c>
-      <c r="I16">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="J16">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>17.96553866666666</v>
-      </c>
-      <c r="N16">
-        <v>53.89661599999999</v>
-      </c>
-      <c r="O16">
-        <v>0.119933805378222</v>
-      </c>
-      <c r="P16">
-        <v>0.119933805378222</v>
-      </c>
-      <c r="Q16">
-        <v>0.08454582496533332</v>
-      </c>
-      <c r="R16">
-        <v>0.7609124246879999</v>
-      </c>
-      <c r="S16">
-        <v>6.962667837441496E-06</v>
-      </c>
-      <c r="T16">
-        <v>6.962667837441496E-06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.004706</v>
-      </c>
-      <c r="H17">
-        <v>0.014118</v>
-      </c>
-      <c r="I17">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="J17">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>63.67711000000001</v>
-      </c>
-      <c r="N17">
-        <v>191.03133</v>
-      </c>
-      <c r="O17">
-        <v>0.4250937452800915</v>
-      </c>
-      <c r="P17">
-        <v>0.4250937452800915</v>
-      </c>
-      <c r="Q17">
-        <v>0.29966447966</v>
-      </c>
-      <c r="R17">
-        <v>2.69698031694</v>
-      </c>
-      <c r="S17">
-        <v>2.467850110171431E-05</v>
-      </c>
-      <c r="T17">
-        <v>2.467850110171431E-05</v>
+        <v>0.1759161455529759</v>
       </c>
     </row>
   </sheetData>
